--- a/data/intra_interassay_var_abx.xlsx
+++ b/data/intra_interassay_var_abx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/Antibiotic study 2022/antibioticAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive - USU\Desktop\Antibiotic study 2022\antibioticAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{028991A8-0121-47AE-93A4-3C8349BED596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AB2131-1DCC-4BBE-BCF5-0E1C36F66635}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2F7108-E65D-4F1D-9642-3EBBE7B3C70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F2C02EB-C102-4E0E-AE67-25418C2FD2A7}"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15270" xr2:uid="{0F2C02EB-C102-4E0E-AE67-25418C2FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="20">
   <si>
     <t>Assay</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>agg/Lys</t>
+  </si>
+  <si>
+    <t>IgY</t>
+  </si>
+  <si>
+    <t>final cv</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C760F20-7E3E-4384-B0D1-E255804E12B0}">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,7 +467,7 @@
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1123,7 +1129,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1165,7 +1171,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +1213,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1236,7 @@
       <c r="H19" s="2"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>4.8731672872283598</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1323,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1359,7 +1365,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1407,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1443,7 +1449,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
       <c r="J25" s="2" t="s">
         <v>13</v>
@@ -1466,7 +1472,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1518,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -1549,7 +1555,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -1586,7 +1592,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
@@ -1623,7 +1629,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -1641,7 +1647,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
@@ -1657,9 +1663,26 @@
       <c r="E31" s="2">
         <v>0</v>
       </c>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1675,8 +1698,35 @@
       <c r="E32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0.11115342388663979</v>
+      </c>
+      <c r="R32">
+        <v>1.501905461924157E-2</v>
+      </c>
+      <c r="T32">
+        <v>5.6644067918815606E-3</v>
+      </c>
+      <c r="V32">
+        <v>8.9819292255327227E-2</v>
+      </c>
+      <c r="X32">
+        <v>0.17108024605569994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
@@ -1692,8 +1742,41 @@
       <c r="E33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>-1.6100277479324463</v>
+      </c>
+      <c r="P33">
+        <v>5.2468665385714396E-2</v>
+      </c>
+      <c r="R33">
+        <v>0.22329687826943584</v>
+      </c>
+      <c r="T33">
+        <v>1.0633184679496968E-2</v>
+      </c>
+      <c r="V33">
+        <v>3.9247965106805602E-2</v>
+      </c>
+      <c r="X33">
+        <v>1.2032800140869393</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
@@ -1709,8 +1792,42 @@
       <c r="E34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>-1.7246506858208492E-2</v>
+      </c>
+      <c r="P34">
+        <v>0.13456610198523153</v>
+      </c>
+      <c r="R34">
+        <v>6.3134534034513232E-2</v>
+      </c>
+      <c r="T34">
+        <v>0.18389658521077093</v>
+      </c>
+      <c r="V34">
+        <v>0.15891540502587112</v>
+      </c>
+      <c r="X34">
+        <v>0.30917553358613808</v>
+      </c>
+      <c r="AA34">
+        <f>AVERAGE(N32:X86)</f>
+        <v>5.8454808088395274E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
@@ -1726,8 +1843,38 @@
       <c r="E35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>-0.91612576682030633</v>
+      </c>
+      <c r="P35">
+        <v>0.30335094540329244</v>
+      </c>
+      <c r="R35">
+        <v>2.1552335777985335E-2</v>
+      </c>
+      <c r="T35">
+        <v>0.49827213596564957</v>
+      </c>
+      <c r="V35">
+        <v>7.8775821776750743E-2</v>
+      </c>
+      <c r="X35">
+        <v>0.32879474979542589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
@@ -1743,8 +1890,38 @@
       <c r="E36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>-8.6057620428383139E-3</v>
+      </c>
+      <c r="P36">
+        <v>0.42403851630963574</v>
+      </c>
+      <c r="R36">
+        <v>1.9357190467264605E-2</v>
+      </c>
+      <c r="T36">
+        <v>0.10872613160789055</v>
+      </c>
+      <c r="V36">
+        <v>0.42931483143469079</v>
+      </c>
+      <c r="X36">
+        <v>0.47070872076034398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -1760,8 +1937,35 @@
       <c r="E37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0.2610305690347306</v>
+      </c>
+      <c r="P37">
+        <v>9.9334778872786814E-2</v>
+      </c>
+      <c r="R37">
+        <v>0.25141574442188347</v>
+      </c>
+      <c r="T37">
+        <v>2.1520641166547123E-2</v>
+      </c>
+      <c r="V37">
+        <v>0.23449969784247776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -1777,8 +1981,38 @@
       <c r="E38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0.64720884702663117</v>
+      </c>
+      <c r="P38">
+        <v>1.5405376496438958E-2</v>
+      </c>
+      <c r="R38">
+        <v>0.18021679420071424</v>
+      </c>
+      <c r="T38">
+        <v>5.4758625810248599E-3</v>
+      </c>
+      <c r="V38">
+        <v>0.1387361406125506</v>
+      </c>
+      <c r="X38">
+        <v>0.59659078357371209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
@@ -1794,8 +2028,38 @@
       <c r="E39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0.27735881200904106</v>
+      </c>
+      <c r="P39">
+        <v>0.17410889767103224</v>
+      </c>
+      <c r="R39">
+        <v>5.2846690130198694E-2</v>
+      </c>
+      <c r="T39">
+        <v>5.8519181891300539E-3</v>
+      </c>
+      <c r="V39">
+        <v>0.14250240899520364</v>
+      </c>
+      <c r="X39">
+        <v>8.524625801012474E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -1811,8 +2075,38 @@
       <c r="E40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>-6.1681468451195718</v>
+      </c>
+      <c r="P40">
+        <v>0.13862951190042588</v>
+      </c>
+      <c r="R40">
+        <v>4.5569536435596886E-2</v>
+      </c>
+      <c r="T40">
+        <v>0.17429226606543927</v>
+      </c>
+      <c r="V40">
+        <v>4.3558939292805611E-2</v>
+      </c>
+      <c r="X40">
+        <v>0.49342248065983269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>17</v>
       </c>
@@ -1828,8 +2122,38 @@
       <c r="E41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M41" s="2">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>-6.7959919473306651E-2</v>
+      </c>
+      <c r="P41">
+        <v>0.12318066397583717</v>
+      </c>
+      <c r="R41">
+        <v>1.2397196842369448E-2</v>
+      </c>
+      <c r="T41">
+        <v>6.5357890326667861E-2</v>
+      </c>
+      <c r="V41">
+        <v>2.9684192420891632E-2</v>
+      </c>
+      <c r="X41">
+        <v>0.22730220344018764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
@@ -1845,8 +2169,38 @@
       <c r="E42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M42" s="2">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0.65041266214129567</v>
+      </c>
+      <c r="R42">
+        <v>1.9691849273947813E-2</v>
+      </c>
+      <c r="T42">
+        <v>8.5529530910025534E-2</v>
+      </c>
+      <c r="V42">
+        <v>9.9627805235853947E-2</v>
+      </c>
+      <c r="X42">
+        <v>0.43775031581533058</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -1862,8 +2216,38 @@
       <c r="E43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M43" s="2">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>-5.4161370473863241E-2</v>
+      </c>
+      <c r="P43">
+        <v>5.6349972903056884E-3</v>
+      </c>
+      <c r="R43">
+        <v>4.6241315390945937E-3</v>
+      </c>
+      <c r="T43">
+        <v>0.15152288168283168</v>
+      </c>
+      <c r="V43">
+        <v>0.17278615784172133</v>
+      </c>
+      <c r="X43">
+        <v>0.17344663330106966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
@@ -1879,8 +2263,38 @@
       <c r="E44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M44" s="2">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>-0.13714479801949719</v>
+      </c>
+      <c r="P44">
+        <v>0.29961505661058063</v>
+      </c>
+      <c r="R44">
+        <v>7.3720950254027627E-3</v>
+      </c>
+      <c r="T44">
+        <v>7.1578293801092124E-2</v>
+      </c>
+      <c r="V44">
+        <v>2.5438884866138236E-2</v>
+      </c>
+      <c r="X44">
+        <v>0.30815806302881382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
@@ -1896,8 +2310,38 @@
       <c r="E45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M45" s="2">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>0.27124596470811274</v>
+      </c>
+      <c r="P45">
+        <v>0.19143079700538243</v>
+      </c>
+      <c r="R45">
+        <v>2.7187242177155648E-2</v>
+      </c>
+      <c r="T45">
+        <v>0.4691083467978947</v>
+      </c>
+      <c r="V45">
+        <v>5.7577519988047735E-2</v>
+      </c>
+      <c r="X45">
+        <v>0.23648139701371729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
@@ -1913,8 +2357,38 @@
       <c r="E46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M46" s="2">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>0.2282277241618208</v>
+      </c>
+      <c r="P46">
+        <v>1.7440287834143423E-2</v>
+      </c>
+      <c r="R46">
+        <v>3.2981659051810733E-2</v>
+      </c>
+      <c r="T46">
+        <v>7.8385971124605811E-2</v>
+      </c>
+      <c r="V46">
+        <v>5.5580445682785459E-2</v>
+      </c>
+      <c r="X46">
+        <v>0.18418458213602004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
@@ -1930,8 +2404,38 @@
       <c r="E47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M47" s="2">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>0.27691458181106626</v>
+      </c>
+      <c r="P47">
+        <v>6.7872006162789711E-2</v>
+      </c>
+      <c r="R47">
+        <v>4.7315695395382398E-2</v>
+      </c>
+      <c r="T47">
+        <v>8.1899958109853593E-2</v>
+      </c>
+      <c r="V47">
+        <v>0.16523968991938326</v>
+      </c>
+      <c r="X47">
+        <v>7.3323557262369035E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>17</v>
       </c>
@@ -1947,8 +2451,38 @@
       <c r="E48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M48" s="2">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>-1.5273506473629426</v>
+      </c>
+      <c r="P48">
+        <v>2.9029358105503176E-3</v>
+      </c>
+      <c r="R48">
+        <v>1.0151014518571791E-2</v>
+      </c>
+      <c r="T48">
+        <v>2.009671904424926E-2</v>
+      </c>
+      <c r="V48">
+        <v>0.61280653338776692</v>
+      </c>
+      <c r="X48">
+        <v>1.6778478102612699E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>17</v>
       </c>
@@ -1964,8 +2498,35 @@
       <c r="E49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M49" s="2">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>9.5614534785234406E-2</v>
+      </c>
+      <c r="R49">
+        <v>5.3033008588991105E-2</v>
+      </c>
+      <c r="T49">
+        <v>0.13819004668789114</v>
+      </c>
+      <c r="V49">
+        <v>8.8581154888436237E-2</v>
+      </c>
+      <c r="X49">
+        <v>1.3222080630371751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
@@ -1981,8 +2542,38 @@
       <c r="E50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M50" s="2">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>-6.629126073623888E-2</v>
+      </c>
+      <c r="P50">
+        <v>0.44736999134166305</v>
+      </c>
+      <c r="R50">
+        <v>0.11267273674145867</v>
+      </c>
+      <c r="T50">
+        <v>3.1152256793533242E-2</v>
+      </c>
+      <c r="V50">
+        <v>4.2270672813459094E-2</v>
+      </c>
+      <c r="X50">
+        <v>0.37041188000369812</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -1998,8 +2589,38 @@
       <c r="E51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M51" s="2">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>-1.9091883092036765</v>
+      </c>
+      <c r="P51">
+        <v>0.14130058650525368</v>
+      </c>
+      <c r="R51">
+        <v>5.5502541304784193E-2</v>
+      </c>
+      <c r="T51">
+        <v>0.12399076976333359</v>
+      </c>
+      <c r="V51">
+        <v>0.11508534628272363</v>
+      </c>
+      <c r="X51">
+        <v>0.43983112539733948</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>17</v>
       </c>
@@ -2015,8 +2636,38 @@
       <c r="E52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M52" s="2">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>-5.9130880656714721E-2</v>
+      </c>
+      <c r="P52">
+        <v>6.9026693565487254E-2</v>
+      </c>
+      <c r="R52">
+        <v>0.17926650790644871</v>
+      </c>
+      <c r="T52">
+        <v>7.8715301804579321E-2</v>
+      </c>
+      <c r="V52">
+        <v>2.7281613651715213E-2</v>
+      </c>
+      <c r="X52">
+        <v>0.20646160985981313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>17</v>
       </c>
@@ -2032,8 +2683,38 @@
       <c r="E53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M53" s="2">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>3.1528169584735858E-3</v>
+      </c>
+      <c r="P53">
+        <v>5.615259732952E-2</v>
+      </c>
+      <c r="R53">
+        <v>8.4852813742385777E-2</v>
+      </c>
+      <c r="T53">
+        <v>9.3266656826289235E-2</v>
+      </c>
+      <c r="V53">
+        <v>4.3588774182732222E-2</v>
+      </c>
+      <c r="X53">
+        <v>7.1381229058293166E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
@@ -2049,8 +2730,38 @@
       <c r="E54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M54" s="2">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>4.7229775531645327E-2</v>
+      </c>
+      <c r="P54">
+        <v>5.9966652821473967E-2</v>
+      </c>
+      <c r="R54">
+        <v>4.4076721320640229E-2</v>
+      </c>
+      <c r="T54">
+        <v>0.15062629658411647</v>
+      </c>
+      <c r="V54">
+        <v>2.3922710420138295E-2</v>
+      </c>
+      <c r="X54">
+        <v>2.0014307191109356E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>17</v>
       </c>
@@ -2066,8 +2777,38 @@
       <c r="E55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M55" s="2">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>-1.9086429826372107</v>
+      </c>
+      <c r="P55">
+        <v>1.9207125847119397E-2</v>
+      </c>
+      <c r="R55">
+        <v>0.13033536009158822</v>
+      </c>
+      <c r="T55">
+        <v>1.6438551447098337E-2</v>
+      </c>
+      <c r="V55">
+        <v>0.11639442343317902</v>
+      </c>
+      <c r="X55">
+        <v>1.2483535389707494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>17</v>
       </c>
@@ -2083,8 +2824,38 @@
       <c r="E56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M56" s="2">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>-6.4887445803000912</v>
+      </c>
+      <c r="P56">
+        <v>0.11172382633197316</v>
+      </c>
+      <c r="R56">
+        <v>5.546418886769152E-2</v>
+      </c>
+      <c r="T56">
+        <v>0.18171022561577641</v>
+      </c>
+      <c r="V56">
+        <v>7.0704020489606778E-2</v>
+      </c>
+      <c r="X56">
+        <v>2.9430082457819709E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>17</v>
       </c>
@@ -2100,8 +2871,38 @@
       <c r="E57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M57" s="2">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0.18355058596931431</v>
+      </c>
+      <c r="R57">
+        <v>1.4362358453348979E-2</v>
+      </c>
+      <c r="T57">
+        <v>0.30865625859355483</v>
+      </c>
+      <c r="V57">
+        <v>1.3414500591639053E-2</v>
+      </c>
+      <c r="X57">
+        <v>6.8073592985001499E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -2117,8 +2918,38 @@
       <c r="E58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M58" s="2">
+        <v>4</v>
+      </c>
+      <c r="N58">
+        <v>-6.2447857304789549</v>
+      </c>
+      <c r="P58">
+        <v>2.1734839585651974E-2</v>
+      </c>
+      <c r="R58">
+        <v>8.5524014871758966E-2</v>
+      </c>
+      <c r="T58">
+        <v>4.175102268076869E-2</v>
+      </c>
+      <c r="V58">
+        <v>7.1008127494075507E-2</v>
+      </c>
+      <c r="X58">
+        <v>2.0695808229850222E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
@@ -2134,8 +2965,38 @@
       <c r="E59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M59" s="2">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>-0.16063450263035187</v>
+      </c>
+      <c r="P59">
+        <v>0.48591356789439583</v>
+      </c>
+      <c r="R59">
+        <v>1.6897340937746922E-2</v>
+      </c>
+      <c r="T59">
+        <v>5.8534133138590093E-2</v>
+      </c>
+      <c r="V59">
+        <v>2.8553184840136275E-2</v>
+      </c>
+      <c r="X59">
+        <v>2.4198406905689047E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
@@ -2151,8 +3012,38 @@
       <c r="E60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M60" s="2">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>0.29241123645129097</v>
+      </c>
+      <c r="P60">
+        <v>7.2494267233120288E-2</v>
+      </c>
+      <c r="R60">
+        <v>5.4086127906399377E-2</v>
+      </c>
+      <c r="T60">
+        <v>-4.0214603669377159E-2</v>
+      </c>
+      <c r="V60">
+        <v>5.2433371626244042E-2</v>
+      </c>
+      <c r="X60">
+        <v>0.10455027686273487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>17</v>
       </c>
@@ -2168,8 +3059,38 @@
       <c r="E61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M61" s="2">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>0.19585662469796475</v>
+      </c>
+      <c r="P61">
+        <v>0.24763770535562929</v>
+      </c>
+      <c r="R61">
+        <v>4.3643840311459924E-2</v>
+      </c>
+      <c r="T61">
+        <v>4.638349914172088E-2</v>
+      </c>
+      <c r="V61">
+        <v>0.13932932434030784</v>
+      </c>
+      <c r="X61">
+        <v>-0.4008794350033969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
@@ -2185,8 +3106,38 @@
       <c r="E62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M62" s="2">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>0.47060742149987339</v>
+      </c>
+      <c r="P62">
+        <v>0.11405705132979155</v>
+      </c>
+      <c r="R62">
+        <v>3.6036804268246167E-2</v>
+      </c>
+      <c r="T62">
+        <v>1.0759540906396317E-2</v>
+      </c>
+      <c r="V62">
+        <v>5.718578589827019E-2</v>
+      </c>
+      <c r="X62">
+        <v>0.22302754843334865</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>17</v>
       </c>
@@ -2202,8 +3153,38 @@
       <c r="E63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M63" s="2">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <v>-1.0162013621842596</v>
+      </c>
+      <c r="P63">
+        <v>7.7035806171376037E-2</v>
+      </c>
+      <c r="R63">
+        <v>5.6686924827897923E-2</v>
+      </c>
+      <c r="T63">
+        <v>7.9620602707332525E-2</v>
+      </c>
+      <c r="V63">
+        <v>0.84852813742386646</v>
+      </c>
+      <c r="X63">
+        <v>3.6376845721391597E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>17</v>
       </c>
@@ -2219,8 +3200,38 @@
       <c r="E64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M64" s="2">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>5.8674818013351899</v>
+      </c>
+      <c r="P64">
+        <v>-0.33225499356958232</v>
+      </c>
+      <c r="R64">
+        <v>-0.88054806713796463</v>
+      </c>
+      <c r="T64">
+        <v>1.3500447678517423E-2</v>
+      </c>
+      <c r="V64">
+        <v>2.9551238123324094E-2</v>
+      </c>
+      <c r="X64">
+        <v>0.223173453002774</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
@@ -2235,6 +3246,669 @@
       </c>
       <c r="E65" s="2">
         <v>0</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M65" s="2">
+        <v>5</v>
+      </c>
+      <c r="N65">
+        <v>-5.2443024562661162E-3</v>
+      </c>
+      <c r="R65">
+        <v>1.7031117834109544E-2</v>
+      </c>
+      <c r="T65">
+        <v>6.4289927651882831E-3</v>
+      </c>
+      <c r="V65">
+        <v>0.15492432320519567</v>
+      </c>
+      <c r="X65">
+        <v>0.2620112043737905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M66" s="2">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>1.1828923848845594</v>
+      </c>
+      <c r="P66">
+        <v>0.11417525345140361</v>
+      </c>
+      <c r="R66">
+        <v>0.45896640678599154</v>
+      </c>
+      <c r="T66">
+        <v>5.9856668836333088E-2</v>
+      </c>
+      <c r="V66">
+        <v>0.11958217101447777</v>
+      </c>
+      <c r="X66">
+        <v>3.7268452978911536E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M67" s="2">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>-1.0686752360501985E-2</v>
+      </c>
+      <c r="P67">
+        <v>4.0636031145996577E-3</v>
+      </c>
+      <c r="R67">
+        <v>1.082222637975838E-2</v>
+      </c>
+      <c r="T67">
+        <v>7.4679706889687378E-2</v>
+      </c>
+      <c r="V67">
+        <v>0.30240162471602755</v>
+      </c>
+      <c r="X67">
+        <v>3.9178609952685288E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M68" s="2">
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <v>7.774201112483484E-3</v>
+      </c>
+      <c r="P68">
+        <v>2.2625588667572086E-2</v>
+      </c>
+      <c r="R68">
+        <v>-0.16858174915705659</v>
+      </c>
+      <c r="T68">
+        <v>-0.339411254969543</v>
+      </c>
+      <c r="V68">
+        <v>0.17086485192183931</v>
+      </c>
+      <c r="X68">
+        <v>0.29218634071426214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M69" s="2">
+        <v>5</v>
+      </c>
+      <c r="N69">
+        <v>0.12851836786191878</v>
+      </c>
+      <c r="P69">
+        <v>9.4663382471221469E-2</v>
+      </c>
+      <c r="R69">
+        <v>-0.30595966493648646</v>
+      </c>
+      <c r="T69">
+        <v>0.19474047197443287</v>
+      </c>
+      <c r="V69">
+        <v>0.2922484083763881</v>
+      </c>
+      <c r="X69">
+        <v>0.19934723188444201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M70" s="2">
+        <v>5</v>
+      </c>
+      <c r="N70">
+        <v>0.40926340450797144</v>
+      </c>
+      <c r="P70">
+        <v>4.7093939546219805E-3</v>
+      </c>
+      <c r="R70">
+        <v>5.2601964711493495E-3</v>
+      </c>
+      <c r="T70">
+        <v>0.171728441023203</v>
+      </c>
+      <c r="V70">
+        <v>1.1714291323863478E-2</v>
+      </c>
+      <c r="X70">
+        <v>0.13641253682057161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M71" s="2">
+        <v>6</v>
+      </c>
+      <c r="N71">
+        <v>-1.9100334567509127</v>
+      </c>
+      <c r="P71">
+        <v>9.2958823118301692E-4</v>
+      </c>
+      <c r="R71">
+        <v>6.7666881135670209E-2</v>
+      </c>
+      <c r="T71">
+        <v>5.9147590589078258E-2</v>
+      </c>
+      <c r="V71">
+        <v>7.1483631204031714E-2</v>
+      </c>
+      <c r="X71">
+        <v>6.6336721757179945E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M72" s="2">
+        <v>6</v>
+      </c>
+      <c r="N72">
+        <v>-5.0140299029591526</v>
+      </c>
+      <c r="P72">
+        <v>7.0215931716317556E-2</v>
+      </c>
+      <c r="R72">
+        <v>1.9384913948783101E-2</v>
+      </c>
+      <c r="T72">
+        <v>3.6109306794837544E-2</v>
+      </c>
+      <c r="V72">
+        <v>1.6627774776168454E-2</v>
+      </c>
+      <c r="X72">
+        <v>8.6160424896699842E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M73" s="2">
+        <v>6</v>
+      </c>
+      <c r="N73">
+        <v>-2.4695231007679209E-2</v>
+      </c>
+      <c r="P73">
+        <v>-0.84022957373267027</v>
+      </c>
+      <c r="R73">
+        <v>0.10194108165731261</v>
+      </c>
+      <c r="T73">
+        <v>-0.51585457486065789</v>
+      </c>
+      <c r="V73">
+        <v>2.6895141706141389E-2</v>
+      </c>
+      <c r="X73">
+        <v>6.3016447657729513E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M74" s="2">
+        <v>6</v>
+      </c>
+      <c r="N74">
+        <v>-0.44740574518712495</v>
+      </c>
+      <c r="P74">
+        <v>6.4809787016815182E-2</v>
+      </c>
+      <c r="R74">
+        <v>5.8388735953764287E-2</v>
+      </c>
+      <c r="T74">
+        <v>1.5012137262759885E-2</v>
+      </c>
+      <c r="V74">
+        <v>8.0382963407254038E-2</v>
+      </c>
+      <c r="X74">
+        <v>0.23993260912594741</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M75" s="2">
+        <v>6</v>
+      </c>
+      <c r="N75">
+        <v>-2.1954923835442446</v>
+      </c>
+      <c r="P75">
+        <v>0.26086898622732357</v>
+      </c>
+      <c r="R75">
+        <v>2.7544600055928799E-2</v>
+      </c>
+      <c r="T75">
+        <v>1.7211524085676629E-3</v>
+      </c>
+      <c r="V75">
+        <v>0.10692523783918989</v>
+      </c>
+      <c r="X75">
+        <v>1.895079056230237E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M76" s="2">
+        <v>6</v>
+      </c>
+      <c r="N76">
+        <v>-3.2161953595904236</v>
+      </c>
+      <c r="P76">
+        <v>0.11238147167601457</v>
+      </c>
+      <c r="R76">
+        <v>3.9048200193869967E-2</v>
+      </c>
+      <c r="T76">
+        <v>4.1546995467138456E-3</v>
+      </c>
+      <c r="V76">
+        <v>0.13564663674540162</v>
+      </c>
+      <c r="X76">
+        <v>0.10420294593107209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+      <c r="L77" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M77" s="2">
+        <v>6</v>
+      </c>
+      <c r="N77">
+        <v>5.0271309107872635E-2</v>
+      </c>
+      <c r="P77">
+        <v>1.3127244365774778E-2</v>
+      </c>
+      <c r="R77">
+        <v>0.20332443222281157</v>
+      </c>
+      <c r="T77">
+        <v>9.3933004142862486E-2</v>
+      </c>
+      <c r="V77">
+        <v>0.10134464369777618</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M78" s="2">
+        <v>6</v>
+      </c>
+      <c r="N78">
+        <v>1.513787114814209E-2</v>
+      </c>
+      <c r="P78">
+        <v>9.8783121441157931E-2</v>
+      </c>
+      <c r="R78">
+        <v>2.8856713366272459E-2</v>
+      </c>
+      <c r="T78">
+        <v>4.4056888292620604E-2</v>
+      </c>
+      <c r="V78">
+        <v>5.5293309412966965E-2</v>
+      </c>
+      <c r="X78">
+        <v>8.2728557869353292E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M79" s="2">
+        <v>7</v>
+      </c>
+      <c r="N79">
+        <v>-2.0500154580618397</v>
+      </c>
+      <c r="P79">
+        <v>5.7762296625177515E-3</v>
+      </c>
+      <c r="R79">
+        <v>0.1039927441149314</v>
+      </c>
+      <c r="T79">
+        <v>7.0043596249610901E-2</v>
+      </c>
+      <c r="V79">
+        <v>0.14687129746395974</v>
+      </c>
+      <c r="X79">
+        <v>0.92453266310219751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M80" s="2">
+        <v>7</v>
+      </c>
+      <c r="N80">
+        <v>-6.3044847593641746</v>
+      </c>
+      <c r="P80">
+        <v>0.12637653110568073</v>
+      </c>
+      <c r="R80">
+        <v>9.6921047384449316E-2</v>
+      </c>
+      <c r="T80">
+        <v>2.9161750961065235E-2</v>
+      </c>
+      <c r="V80">
+        <v>0.13948407738474358</v>
+      </c>
+      <c r="X80">
+        <v>5.0140299029591526</v>
+      </c>
+    </row>
+    <row r="81" spans="10:24" x14ac:dyDescent="0.35">
+      <c r="J81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+      <c r="L81" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M81" s="2">
+        <v>7</v>
+      </c>
+      <c r="N81">
+        <v>-2.0299716206312386E-2</v>
+      </c>
+      <c r="P81">
+        <v>-2.9259590945650268E-2</v>
+      </c>
+      <c r="R81">
+        <v>2.7677991435074517E-2</v>
+      </c>
+      <c r="T81">
+        <v>6.7669575186180497E-2</v>
+      </c>
+      <c r="V81">
+        <v>-1.145252700817476</v>
+      </c>
+    </row>
+    <row r="82" spans="10:24" x14ac:dyDescent="0.35">
+      <c r="J82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M82" s="2">
+        <v>7</v>
+      </c>
+      <c r="N82">
+        <v>-0.21117216089733964</v>
+      </c>
+      <c r="P82">
+        <v>0.59942371733059474</v>
+      </c>
+      <c r="R82">
+        <v>-1.0400247598774899</v>
+      </c>
+      <c r="T82">
+        <v>6.4429296820921939E-2</v>
+      </c>
+      <c r="V82">
+        <v>0.91807962409794353</v>
+      </c>
+      <c r="X82">
+        <v>0.75399715129175615</v>
+      </c>
+    </row>
+    <row r="83" spans="10:24" x14ac:dyDescent="0.35">
+      <c r="J83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1">
+        <v>44950</v>
+      </c>
+      <c r="M83" s="2">
+        <v>7</v>
+      </c>
+      <c r="N83">
+        <v>-1.5502950135636866E-2</v>
+      </c>
+      <c r="P83">
+        <v>1.152891491065024E-2</v>
+      </c>
+      <c r="R83">
+        <v>8.9729196239595035E-2</v>
+      </c>
+      <c r="T83">
+        <v>0.25445458221400857</v>
+      </c>
+      <c r="V83">
+        <v>-0.15427784316797172</v>
+      </c>
+      <c r="X83">
+        <v>0.98443202801741148</v>
+      </c>
+    </row>
+    <row r="84" spans="10:24" x14ac:dyDescent="0.35">
+      <c r="M84" s="2">
+        <v>7</v>
+      </c>
+      <c r="N84">
+        <v>0.53576008676932951</v>
+      </c>
+      <c r="P84">
+        <v>0.23944609487966248</v>
+      </c>
+      <c r="R84">
+        <v>7.5806563796056393E-3</v>
+      </c>
+      <c r="T84">
+        <v>0.13931058972630481</v>
+      </c>
+      <c r="V84">
+        <v>-0.23266094090654185</v>
+      </c>
+      <c r="X84">
+        <v>21.2395</v>
+      </c>
+    </row>
+    <row r="85" spans="10:24" x14ac:dyDescent="0.35">
+      <c r="M85" s="2">
+        <v>7</v>
+      </c>
+      <c r="N85">
+        <v>0.22308532272394116</v>
+      </c>
+      <c r="P85">
+        <v>9.7485457564086622E-2</v>
+      </c>
+      <c r="R85">
+        <v>4.2426406871192889E-2</v>
+      </c>
+      <c r="V85">
+        <v>-1.8928704604070676</v>
+      </c>
+      <c r="X85">
+        <v>0.55896561968526215</v>
+      </c>
+    </row>
+    <row r="86" spans="10:24" x14ac:dyDescent="0.35">
+      <c r="M86" s="2">
+        <v>7</v>
+      </c>
+      <c r="N86">
+        <v>0.13762522470239177</v>
+      </c>
+      <c r="P86">
+        <v>4.2898288039628805E-3</v>
+      </c>
+      <c r="R86">
+        <v>6.1175772861330198E-2</v>
+      </c>
+      <c r="T86">
+        <v>6.3189324177805706E-2</v>
+      </c>
+      <c r="V86">
+        <v>1.5351660381023726</v>
+      </c>
+      <c r="X86">
+        <v>0.69907147685488247</v>
       </c>
     </row>
   </sheetData>
